--- a/Tabla_iteraciones.xlsx
+++ b/Tabla_iteraciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7EA8B3-03A0-408F-8545-8E3CD4D735B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C21739-7B83-4A0D-AF54-44D48C1ED4BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Masa</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -536,19 +539,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,18 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,15 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,19 +639,10 @@
     <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,6 +668,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,171 +997,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="D1" colorId="23" workbookViewId="0">
+      <selection activeCell="T9" sqref="S9:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="14"/>
-    <col min="8" max="8" width="10.33203125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="46"/>
-    <col min="14" max="14" width="11.33203125" style="47" customWidth="1"/>
-    <col min="15" max="15" width="3.88671875" customWidth="1"/>
-    <col min="16" max="16" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="1" max="1" width="18" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="12"/>
+    <col min="8" max="8" width="10.28515625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="34"/>
+    <col min="14" max="14" width="11.28515625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="O2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="43" t="str" cm="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="35">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="26">
         <v>100000000</v>
       </c>
-      <c r="M3" s="44" cm="1">
+      <c r="M3" s="32" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>2.1492612071124455</v>
       </c>
-      <c r="N3" s="45" cm="1">
+      <c r="N3" s="33" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>2.1515151515151509</v>
       </c>
-      <c r="S3" s="26">
+      <c r="O3" s="33"/>
+      <c r="S3" s="20">
         <v>1</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="21">
         <v>503000000</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="21">
         <v>572000000</v>
       </c>
       <c r="X3" s="1">
@@ -1160,57 +1185,59 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="43" t="str" cm="1">
+      <c r="H4" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT(ADDRESS(I4+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="26">
         <v>200000000</v>
       </c>
-      <c r="M4" s="44" cm="1">
+      <c r="M4" s="32" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>0.57463060355622275</v>
       </c>
-      <c r="N4" s="45" cm="1">
+      <c r="N4" s="33" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>0.57575757575757547</v>
       </c>
-      <c r="S4" s="26">
+      <c r="O4" s="33"/>
+      <c r="S4" s="20">
         <v>2</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="43" t="str" cm="1">
+      <c r="H5" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT(ADDRESS(I5+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>1</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="26">
         <v>300000000</v>
       </c>
-      <c r="M5" s="44" cm="1">
+      <c r="M5" s="32" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>4.9753735704148649E-2</v>
       </c>
-      <c r="N5" s="45" cm="1">
+      <c r="N5" s="33" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>5.0505050505050164E-2</v>
       </c>
+      <c r="O5" s="33"/>
       <c r="X5" cm="1">
         <f t="array" aca="1" ref="X5" ca="1">INDIRECT(ADDRESS(3,24))</f>
         <v>1.1000000000000001</v>
@@ -1232,44 +1259,47 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="H6" s="43" t="str" cm="1">
+      <c r="H6" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(ADDRESS(I6+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>1</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="26">
         <v>400000000</v>
       </c>
-      <c r="M6" s="44" cm="1">
+      <c r="M6" s="32" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>-0.21268469822188862</v>
       </c>
-      <c r="N6" s="45" cm="1">
+      <c r="N6" s="33" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>-0.21212121212121227</v>
       </c>
+      <c r="O6" s="33"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1277,8 +1307,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:N1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
